--- a/Data_clean/MCAS/Estados_US/Edos_USA_2021/WASHINGTON_2021.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2021/WASHINGTON_2021.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1049"/>
+  <dimension ref="A1:D1043"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -426,7 +426,7 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C5">
@@ -439,7 +439,7 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C6">
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>San José de Gracia</t>
+          <t>San José De Gracia</t>
         </is>
       </c>
       <c r="C7">
@@ -509,7 +509,7 @@
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>Playas de Rosarito</t>
+          <t>Playas De Rosarito</t>
         </is>
       </c>
       <c r="C11">
@@ -719,7 +719,7 @@
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C26">
@@ -927,7 +927,7 @@
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>Marqués de Comillas</t>
+          <t>Marqués De Comillas</t>
         </is>
       </c>
       <c r="C42">
@@ -1431,7 +1431,7 @@
     <row r="80">
       <c r="B80" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C80">
@@ -1579,7 +1579,7 @@
     <row r="91">
       <c r="B91" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C91">
@@ -1605,7 +1605,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -1662,7 +1662,7 @@
     <row r="97">
       <c r="B97" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C97">
@@ -1914,7 +1914,7 @@
     <row r="116">
       <c r="B116" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C116">
@@ -2005,7 +2005,7 @@
     <row r="123">
       <c r="B123" t="inlineStr">
         <is>
-          <t>San Pedro del Gallo</t>
+          <t>San Pedro Del Gallo</t>
         </is>
       </c>
       <c r="C123">
@@ -2096,12 +2096,12 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C130">
@@ -2127,7 +2127,7 @@
     <row r="132">
       <c r="B132" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C132">
@@ -2166,7 +2166,7 @@
     <row r="135">
       <c r="B135" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C135">
@@ -2283,7 +2283,7 @@
     <row r="144">
       <c r="B144" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C144">
@@ -2361,7 +2361,7 @@
     <row r="150">
       <c r="B150" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C150">
@@ -2387,7 +2387,7 @@
     <row r="152">
       <c r="B152" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C152">
@@ -2400,7 +2400,7 @@
     <row r="153">
       <c r="B153" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C153">
@@ -2491,7 +2491,7 @@
     <row r="160">
       <c r="B160" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C160">
@@ -2556,7 +2556,7 @@
     <row r="165">
       <c r="B165" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C165">
@@ -2673,7 +2673,7 @@
     <row r="174">
       <c r="B174" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C174">
@@ -2725,7 +2725,7 @@
     <row r="178">
       <c r="B178" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C178">
@@ -2738,7 +2738,7 @@
     <row r="179">
       <c r="B179" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C179">
@@ -2860,7 +2860,7 @@
     <row r="188">
       <c r="B188" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C188">
@@ -3042,7 +3042,7 @@
     <row r="202">
       <c r="B202" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C202">
@@ -3068,7 +3068,7 @@
     <row r="204">
       <c r="B204" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C204">
@@ -3107,7 +3107,7 @@
     <row r="207">
       <c r="B207" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C207">
@@ -3138,7 +3138,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C209">
@@ -3164,7 +3164,7 @@
     <row r="211">
       <c r="B211" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C211">
@@ -3203,7 +3203,7 @@
     <row r="214">
       <c r="B214" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C214">
@@ -3216,7 +3216,7 @@
     <row r="215">
       <c r="B215" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C215">
@@ -3242,7 +3242,7 @@
     <row r="217">
       <c r="B217" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C217">
@@ -3255,7 +3255,7 @@
     <row r="218">
       <c r="B218" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C218">
@@ -3294,7 +3294,7 @@
     <row r="221">
       <c r="B221" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C221">
@@ -3307,7 +3307,7 @@
     <row r="222">
       <c r="B222" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C222">
@@ -3320,7 +3320,7 @@
     <row r="223">
       <c r="B223" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C223">
@@ -3333,7 +3333,7 @@
     <row r="224">
       <c r="B224" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C224">
@@ -3372,7 +3372,7 @@
     <row r="227">
       <c r="B227" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C227">
@@ -3385,7 +3385,7 @@
     <row r="228">
       <c r="B228" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C228">
@@ -3437,7 +3437,7 @@
     <row r="232">
       <c r="B232" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C232">
@@ -3450,7 +3450,7 @@
     <row r="233">
       <c r="B233" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C233">
@@ -3528,7 +3528,7 @@
     <row r="239">
       <c r="B239" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C239">
@@ -3541,7 +3541,7 @@
     <row r="240">
       <c r="B240" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C240">
@@ -3567,7 +3567,7 @@
     <row r="242">
       <c r="B242" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C242">
@@ -3580,7 +3580,7 @@
     <row r="243">
       <c r="B243" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C243">
@@ -3606,7 +3606,7 @@
     <row r="245">
       <c r="B245" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C245">
@@ -3645,7 +3645,7 @@
     <row r="248">
       <c r="B248" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C248">
@@ -3788,7 +3788,7 @@
     <row r="259">
       <c r="B259" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C259">
@@ -3814,7 +3814,7 @@
     <row r="261">
       <c r="B261" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C261">
@@ -3840,7 +3840,7 @@
     <row r="263">
       <c r="B263" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C263">
@@ -3866,7 +3866,7 @@
     <row r="265">
       <c r="B265" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C265">
@@ -3892,7 +3892,7 @@
     <row r="267">
       <c r="B267" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C267">
@@ -3905,7 +3905,7 @@
     <row r="268">
       <c r="B268" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C268">
@@ -4079,7 +4079,7 @@
     <row r="281">
       <c r="B281" t="inlineStr">
         <is>
-          <t>Atotonilco de Tula</t>
+          <t>Atotonilco De Tula</t>
         </is>
       </c>
       <c r="C281">
@@ -4092,7 +4092,7 @@
     <row r="282">
       <c r="B282" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C282">
@@ -4157,7 +4157,7 @@
     <row r="287">
       <c r="B287" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C287">
@@ -4183,7 +4183,7 @@
     <row r="289">
       <c r="B289" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C289">
@@ -4196,7 +4196,7 @@
     <row r="290">
       <c r="B290" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C290">
@@ -4235,7 +4235,7 @@
     <row r="293">
       <c r="B293" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C293">
@@ -4287,7 +4287,7 @@
     <row r="297">
       <c r="B297" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C297">
@@ -4300,7 +4300,7 @@
     <row r="298">
       <c r="B298" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C298">
@@ -4313,7 +4313,7 @@
     <row r="299">
       <c r="B299" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C299">
@@ -4326,7 +4326,7 @@
     <row r="300">
       <c r="B300" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C300">
@@ -4339,7 +4339,7 @@
     <row r="301">
       <c r="B301" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C301">
@@ -4391,7 +4391,7 @@
     <row r="305">
       <c r="B305" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C305">
@@ -4417,7 +4417,7 @@
     <row r="307">
       <c r="B307" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C307">
@@ -4456,7 +4456,7 @@
     <row r="310">
       <c r="B310" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C310">
@@ -4469,7 +4469,7 @@
     <row r="311">
       <c r="B311" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C311">
@@ -4513,7 +4513,7 @@
     <row r="314">
       <c r="B314" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C314">
@@ -4526,7 +4526,7 @@
     <row r="315">
       <c r="B315" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C315">
@@ -4591,7 +4591,7 @@
     <row r="320">
       <c r="B320" t="inlineStr">
         <is>
-          <t>Atemajac de Brizuela</t>
+          <t>Atemajac De Brizuela</t>
         </is>
       </c>
       <c r="C320">
@@ -4630,7 +4630,7 @@
     <row r="323">
       <c r="B323" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C323">
@@ -4656,7 +4656,7 @@
     <row r="325">
       <c r="B325" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C325">
@@ -4773,7 +4773,7 @@
     <row r="334">
       <c r="B334" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C334">
@@ -4851,7 +4851,7 @@
     <row r="340">
       <c r="B340" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C340">
@@ -4955,7 +4955,7 @@
     <row r="348">
       <c r="B348" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C348">
@@ -5033,7 +5033,7 @@
     <row r="354">
       <c r="B354" t="inlineStr">
         <is>
-          <t>La Manzanilla de la Paz</t>
+          <t>La Manzanilla De La Paz</t>
         </is>
       </c>
       <c r="C354">
@@ -5046,7 +5046,7 @@
     <row r="355">
       <c r="B355" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C355">
@@ -5124,7 +5124,7 @@
     <row r="361">
       <c r="B361" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C361">
@@ -5176,7 +5176,7 @@
     <row r="365">
       <c r="B365" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C365">
@@ -5202,7 +5202,7 @@
     <row r="367">
       <c r="B367" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C367">
@@ -5215,7 +5215,7 @@
     <row r="368">
       <c r="B368" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C368">
@@ -5241,7 +5241,7 @@
     <row r="370">
       <c r="B370" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C370">
@@ -5254,7 +5254,7 @@
     <row r="371">
       <c r="B371" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C371">
@@ -5267,7 +5267,7 @@
     <row r="372">
       <c r="B372" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C372">
@@ -5280,7 +5280,7 @@
     <row r="373">
       <c r="B373" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C373">
@@ -5306,7 +5306,7 @@
     <row r="375">
       <c r="B375" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C375">
@@ -5319,7 +5319,7 @@
     <row r="376">
       <c r="B376" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C376">
@@ -5397,7 +5397,7 @@
     <row r="382">
       <c r="B382" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C382">
@@ -5410,7 +5410,7 @@
     <row r="383">
       <c r="B383" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C383">
@@ -5436,7 +5436,7 @@
     <row r="385">
       <c r="B385" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C385">
@@ -5449,7 +5449,7 @@
     <row r="386">
       <c r="B386" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C386">
@@ -5527,7 +5527,7 @@
     <row r="392">
       <c r="B392" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C392">
@@ -5540,7 +5540,7 @@
     <row r="393">
       <c r="B393" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C393">
@@ -5553,7 +5553,7 @@
     <row r="394">
       <c r="B394" t="inlineStr">
         <is>
-          <t>Valle de Guadalupe</t>
+          <t>Valle De Guadalupe</t>
         </is>
       </c>
       <c r="C394">
@@ -5592,7 +5592,7 @@
     <row r="397">
       <c r="B397" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C397">
@@ -5618,7 +5618,7 @@
     <row r="399">
       <c r="B399" t="inlineStr">
         <is>
-          <t>Zapotitlán de Vadillo</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C399">
@@ -5631,7 +5631,7 @@
     <row r="400">
       <c r="B400" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C400">
@@ -5896,7 +5896,7 @@
     <row r="420">
       <c r="B420" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C420">
@@ -5922,7 +5922,7 @@
     <row r="422">
       <c r="B422" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C422">
@@ -6189,7 +6189,7 @@
         <v>47</v>
       </c>
       <c r="D442">
-        <v>0.009310618066561015</v>
+        <v>0.009310618066561017</v>
       </c>
     </row>
     <row r="443">
@@ -6624,7 +6624,7 @@
     <row r="476">
       <c r="B476" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C476">
@@ -6915,7 +6915,7 @@
     <row r="498">
       <c r="B498" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C498">
@@ -7019,7 +7019,7 @@
     <row r="506">
       <c r="B506" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C506">
@@ -7084,7 +7084,7 @@
     <row r="511">
       <c r="B511" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C511">
@@ -7097,7 +7097,7 @@
     <row r="512">
       <c r="B512" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C512">
@@ -7232,7 +7232,7 @@
     <row r="522">
       <c r="B522" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C522">
@@ -7310,7 +7310,7 @@
     <row r="528">
       <c r="B528" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C528">
@@ -7471,7 +7471,7 @@
     <row r="540">
       <c r="B540" t="inlineStr">
         <is>
-          <t>MonteMorelos</t>
+          <t>Montemorelos</t>
         </is>
       </c>
       <c r="C540">
@@ -7497,7 +7497,7 @@
     <row r="542">
       <c r="B542" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C542">
@@ -7541,7 +7541,7 @@
     <row r="545">
       <c r="B545" t="inlineStr">
         <is>
-          <t>Ayoquezco de Aldama</t>
+          <t>Ayoquezco De Aldama</t>
         </is>
       </c>
       <c r="C545">
@@ -7593,7 +7593,7 @@
     <row r="549">
       <c r="B549" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C549">
@@ -7619,7 +7619,7 @@
     <row r="551">
       <c r="B551" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C551">
@@ -7632,7 +7632,7 @@
     <row r="552">
       <c r="B552" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C552">
@@ -7658,7 +7658,7 @@
     <row r="554">
       <c r="B554" t="inlineStr">
         <is>
-          <t>Cuilápam de Guerrero</t>
+          <t>Cuilápam De Guerrero</t>
         </is>
       </c>
       <c r="C554">
@@ -7671,7 +7671,7 @@
     <row r="555">
       <c r="B555" t="inlineStr">
         <is>
-          <t>Fresnillo de Trujano</t>
+          <t>Fresnillo De Trujano</t>
         </is>
       </c>
       <c r="C555">
@@ -7684,7 +7684,7 @@
     <row r="556">
       <c r="B556" t="inlineStr">
         <is>
-          <t>Guadalupe de Ramírez</t>
+          <t>Guadalupe De Ramírez</t>
         </is>
       </c>
       <c r="C556">
@@ -7697,7 +7697,7 @@
     <row r="557">
       <c r="B557" t="inlineStr">
         <is>
-          <t>Guevea de Humboldt</t>
+          <t>Guevea De Humboldt</t>
         </is>
       </c>
       <c r="C557">
@@ -7710,7 +7710,7 @@
     <row r="558">
       <c r="B558" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C558">
@@ -7723,7 +7723,7 @@
     <row r="559">
       <c r="B559" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C559">
@@ -7736,7 +7736,7 @@
     <row r="560">
       <c r="B560" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C560">
@@ -7749,7 +7749,7 @@
     <row r="561">
       <c r="B561" t="inlineStr">
         <is>
-          <t>Huautla de Jiménez</t>
+          <t>Huautla De Jiménez</t>
         </is>
       </c>
       <c r="C561">
@@ -7775,7 +7775,7 @@
     <row r="563">
       <c r="B563" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C563">
@@ -7788,7 +7788,7 @@
     <row r="564">
       <c r="B564" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C564">
@@ -7827,7 +7827,7 @@
     <row r="567">
       <c r="B567" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C567">
@@ -7840,7 +7840,7 @@
     <row r="568">
       <c r="B568" t="inlineStr">
         <is>
-          <t>Mártires de Tacubaya</t>
+          <t>Mártires De Tacubaya</t>
         </is>
       </c>
       <c r="C568">
@@ -7879,7 +7879,7 @@
     <row r="571">
       <c r="B571" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C571">
@@ -7892,7 +7892,7 @@
     <row r="572">
       <c r="B572" t="inlineStr">
         <is>
-          <t>Mixistlán de la Reforma</t>
+          <t>Mixistlán De La Reforma</t>
         </is>
       </c>
       <c r="C572">
@@ -7918,7 +7918,7 @@
     <row r="574">
       <c r="B574" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C574">
@@ -7931,7 +7931,7 @@
     <row r="575">
       <c r="B575" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C575">
@@ -7944,7 +7944,7 @@
     <row r="576">
       <c r="B576" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C576">
@@ -8152,7 +8152,7 @@
     <row r="592">
       <c r="B592" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C592">
@@ -8243,7 +8243,7 @@
     <row r="599">
       <c r="B599" t="inlineStr">
         <is>
-          <t>San José del Progreso</t>
+          <t>San José Del Progreso</t>
         </is>
       </c>
       <c r="C599">
@@ -8334,7 +8334,7 @@
     <row r="606">
       <c r="B606" t="inlineStr">
         <is>
-          <t>San Juan del Estado</t>
+          <t>San Juan Del Estado</t>
         </is>
       </c>
       <c r="C606">
@@ -8672,7 +8672,7 @@
     <row r="632">
       <c r="B632" t="inlineStr">
         <is>
-          <t>San Miguel el Grande</t>
+          <t>San Miguel El Grande</t>
         </is>
       </c>
       <c r="C632">
@@ -8841,7 +8841,7 @@
     <row r="645">
       <c r="B645" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C645">
@@ -9049,7 +9049,7 @@
     <row r="661">
       <c r="B661" t="inlineStr">
         <is>
-          <t>Santa Cruz de Bravo</t>
+          <t>Santa Cruz De Bravo</t>
         </is>
       </c>
       <c r="C661">
@@ -9712,7 +9712,7 @@
     <row r="712">
       <c r="B712" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C712">
@@ -9725,7 +9725,7 @@
     <row r="713">
       <c r="B713" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C713">
@@ -9738,7 +9738,7 @@
     <row r="714">
       <c r="B714" t="inlineStr">
         <is>
-          <t>Tezoatlán de Segura y Luna</t>
+          <t>Tezoatlán De Segura Y Luna</t>
         </is>
       </c>
       <c r="C714">
@@ -9751,7 +9751,7 @@
     <row r="715">
       <c r="B715" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C715">
@@ -9790,7 +9790,7 @@
     <row r="718">
       <c r="B718" t="inlineStr">
         <is>
-          <t>Villa de Chilapa de Díaz</t>
+          <t>Villa De Chilapa De Díaz</t>
         </is>
       </c>
       <c r="C718">
@@ -9803,7 +9803,7 @@
     <row r="719">
       <c r="B719" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C719">
@@ -9816,7 +9816,7 @@
     <row r="720">
       <c r="B720" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C720">
@@ -9829,7 +9829,7 @@
     <row r="721">
       <c r="B721" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C721">
@@ -9842,7 +9842,7 @@
     <row r="722">
       <c r="B722" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C722">
@@ -9855,7 +9855,7 @@
     <row r="723">
       <c r="B723" t="inlineStr">
         <is>
-          <t>Villa Talea de Castro</t>
+          <t>Villa Talea De Castro</t>
         </is>
       </c>
       <c r="C723">
@@ -9894,7 +9894,7 @@
     <row r="726">
       <c r="B726" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C726">
@@ -10159,7 +10159,7 @@
     <row r="746">
       <c r="B746" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C746">
@@ -10276,7 +10276,7 @@
     <row r="755">
       <c r="B755" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C755">
@@ -10289,7 +10289,7 @@
     <row r="756">
       <c r="B756" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C756">
@@ -10354,7 +10354,7 @@
     <row r="761">
       <c r="B761" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C761">
@@ -10419,7 +10419,7 @@
     <row r="766">
       <c r="B766" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C766">
@@ -10510,7 +10510,7 @@
     <row r="773">
       <c r="B773" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C773">
@@ -10627,7 +10627,7 @@
     <row r="782">
       <c r="B782" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C782">
@@ -10653,7 +10653,7 @@
     <row r="784">
       <c r="B784" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C784">
@@ -10666,7 +10666,7 @@
     <row r="785">
       <c r="B785" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C785">
@@ -10679,7 +10679,7 @@
     <row r="786">
       <c r="B786" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C786">
@@ -10744,7 +10744,7 @@
     <row r="791">
       <c r="B791" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C791">
@@ -10809,7 +10809,7 @@
     <row r="796">
       <c r="B796" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C796">
@@ -10822,7 +10822,7 @@
     <row r="797">
       <c r="B797" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C797">
@@ -10861,7 +10861,7 @@
     <row r="800">
       <c r="B800" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C800">
@@ -11087,7 +11087,7 @@
       </c>
       <c r="B817" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C817">
@@ -11100,7 +11100,7 @@
     <row r="818">
       <c r="B818" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C818">
@@ -11191,7 +11191,7 @@
     <row r="825">
       <c r="B825" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C825">
@@ -11217,7 +11217,7 @@
     <row r="827">
       <c r="B827" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C827">
@@ -11396,7 +11396,7 @@
     <row r="840">
       <c r="B840" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C840">
@@ -11435,7 +11435,7 @@
     <row r="843">
       <c r="B843" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C843">
@@ -12188,7 +12188,7 @@
     <row r="899">
       <c r="B899" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C899">
@@ -12240,7 +12240,7 @@
     <row r="903">
       <c r="B903" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C903">
@@ -12253,7 +12253,7 @@
     <row r="904">
       <c r="B904" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C904">
@@ -12279,7 +12279,7 @@
     <row r="906">
       <c r="B906" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C906">
@@ -12505,7 +12505,7 @@
     <row r="923">
       <c r="B923" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C923">
@@ -12583,7 +12583,7 @@
     <row r="929">
       <c r="B929" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C929">
@@ -12661,7 +12661,7 @@
     <row r="935">
       <c r="B935" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C935">
@@ -12791,7 +12791,7 @@
     <row r="945">
       <c r="B945" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C945">
@@ -12804,7 +12804,7 @@
     <row r="946">
       <c r="B946" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C946">
@@ -12843,7 +12843,7 @@
     <row r="949">
       <c r="B949" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C949">
@@ -12856,7 +12856,7 @@
     <row r="950">
       <c r="B950" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C950">
@@ -13025,7 +13025,7 @@
     <row r="963">
       <c r="B963" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C963">
@@ -13142,7 +13142,7 @@
     <row r="972">
       <c r="B972" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C972">
@@ -13181,7 +13181,7 @@
     <row r="975">
       <c r="B975" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C975">
@@ -13233,7 +13233,7 @@
     <row r="979">
       <c r="B979" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C979">
@@ -13259,7 +13259,7 @@
     <row r="981">
       <c r="B981" t="inlineStr">
         <is>
-          <t>Tatahuicapan de Juárez</t>
+          <t>Tatahuicapan De Juárez</t>
         </is>
       </c>
       <c r="C981">
@@ -13506,7 +13506,7 @@
     <row r="1000">
       <c r="B1000" t="inlineStr">
         <is>
-          <t>Zontecomatlán de López y Fuentes</t>
+          <t>Zontecomatlán De López Y Fuentes</t>
         </is>
       </c>
       <c r="C1000">
@@ -13802,7 +13802,7 @@
     <row r="1022">
       <c r="B1022" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1022">
@@ -13828,7 +13828,7 @@
     <row r="1024">
       <c r="B1024" t="inlineStr">
         <is>
-          <t>Mezquital del Oro</t>
+          <t>Mezquital Del Oro</t>
         </is>
       </c>
       <c r="C1024">
@@ -13867,7 +13867,7 @@
     <row r="1027">
       <c r="B1027" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1027">
@@ -13958,7 +13958,7 @@
     <row r="1034">
       <c r="B1034" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1034">
@@ -13971,7 +13971,7 @@
     <row r="1035">
       <c r="B1035" t="inlineStr">
         <is>
-          <t>Trinidad García de la Cadena</t>
+          <t>Trinidad García De La Cadena</t>
         </is>
       </c>
       <c r="C1035">
@@ -13997,7 +13997,7 @@
     <row r="1037">
       <c r="B1037" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1037">
@@ -14083,41 +14083,6 @@
       </c>
       <c r="D1043">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1045">
-      <c r="A1045" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 701,861</t>
-        </is>
-      </c>
-    </row>
-    <row r="1046">
-      <c r="A1046" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1047">
-      <c r="A1047" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1048">
-      <c r="A1048" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1049">
-      <c r="A1049" t="inlineStr">
-        <is>
-          <t>Mayo de 2022</t>
-        </is>
       </c>
     </row>
   </sheetData>
